--- a/0.kubrik/development_files/0 - Course Files & Templates/dbt Project Checklist.xlsx
+++ b/0.kubrik/development_files/0 - Course Files & Templates/dbt Project Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRanjan\Desktop\development_files\development_files\0 - Course Files &amp; Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRanjan\dbt_demo\0.kubrik\development_files\0 - Course Files &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C878FAC0-C6EF-4EB2-A1E7-082FE5DCD124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75B968-A67A-491D-AACA-E96278B0C405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>dbt Core Project Checklist</t>
   </si>
@@ -788,8 +788,8 @@
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1442,6 +1442,9 @@
       <c r="B37" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C37" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E37" s="12" t="s">
         <v>65</v>
       </c>
@@ -1453,7 +1456,9 @@
       <c r="B38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1462,7 +1467,9 @@
       <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E39" s="12" t="s">
         <v>68</v>
       </c>
@@ -1474,7 +1481,9 @@
       <c r="B40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E40" s="12" t="s">
         <v>69</v>
       </c>
